--- a/data/pca/factorExposure/factorExposure_2009-07-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0167882962215428</v>
+        <v>0.01659060491419292</v>
       </c>
       <c r="C2">
-        <v>-0.001457997538129571</v>
+        <v>0.001016785500341676</v>
       </c>
       <c r="D2">
-        <v>-0.00797539347757756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009384535090578362</v>
+      </c>
+      <c r="E2">
+        <v>-0.001307613971242399</v>
+      </c>
+      <c r="F2">
+        <v>-0.01215040644469709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09073980165956004</v>
+        <v>0.09165864568719759</v>
       </c>
       <c r="C4">
-        <v>-0.01966768604546551</v>
+        <v>0.01466500599065911</v>
       </c>
       <c r="D4">
-        <v>-0.07354896948739487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08296099169887322</v>
+      </c>
+      <c r="E4">
+        <v>-0.02845382192429534</v>
+      </c>
+      <c r="F4">
+        <v>0.03156361723941411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1531919995041202</v>
+        <v>0.1611629324237499</v>
       </c>
       <c r="C6">
-        <v>-0.02912094795151125</v>
+        <v>0.02819837106901068</v>
       </c>
       <c r="D6">
-        <v>0.0335729795926435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02703276271763515</v>
+      </c>
+      <c r="E6">
+        <v>-0.008787888322077079</v>
+      </c>
+      <c r="F6">
+        <v>0.04211487837859946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06140653846670614</v>
+        <v>0.06256320080541397</v>
       </c>
       <c r="C7">
-        <v>-0.002028049411545057</v>
+        <v>-0.001586074642670553</v>
       </c>
       <c r="D7">
-        <v>-0.04613731187848063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05249118003035229</v>
+      </c>
+      <c r="E7">
+        <v>-0.01317922914695228</v>
+      </c>
+      <c r="F7">
+        <v>0.04885962142106342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06199271953876721</v>
+        <v>0.05758909366759507</v>
       </c>
       <c r="C8">
-        <v>0.0107137062381705</v>
+        <v>-0.0124634475354743</v>
       </c>
       <c r="D8">
-        <v>-0.02571652582722395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03050210161115499</v>
+      </c>
+      <c r="E8">
+        <v>-0.01693249910320392</v>
+      </c>
+      <c r="F8">
+        <v>-0.02615071232574095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07006004580916378</v>
+        <v>0.07102156543702939</v>
       </c>
       <c r="C9">
-        <v>-0.01611543012875296</v>
+        <v>0.0103745582983182</v>
       </c>
       <c r="D9">
-        <v>-0.07535455959412625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08621166426555943</v>
+      </c>
+      <c r="E9">
+        <v>-0.0249883662471142</v>
+      </c>
+      <c r="F9">
+        <v>0.04830795099578356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08524081828654463</v>
+        <v>0.08827018549504943</v>
       </c>
       <c r="C10">
-        <v>-0.01461497316736918</v>
+        <v>0.0214445456259219</v>
       </c>
       <c r="D10">
-        <v>0.166202158034459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1604450111163788</v>
+      </c>
+      <c r="E10">
+        <v>0.03298897535456506</v>
+      </c>
+      <c r="F10">
+        <v>-0.05740489133183591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09122893412504628</v>
+        <v>0.08800464146808314</v>
       </c>
       <c r="C11">
-        <v>-0.01719428819209924</v>
+        <v>0.01129647631436223</v>
       </c>
       <c r="D11">
-        <v>-0.1068627886099249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117815434417572</v>
+      </c>
+      <c r="E11">
+        <v>-0.04799169999655345</v>
+      </c>
+      <c r="F11">
+        <v>0.02297668680948359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09548049063134079</v>
+        <v>0.09016703126947063</v>
       </c>
       <c r="C12">
-        <v>-0.01467904137438743</v>
+        <v>0.008314872009872465</v>
       </c>
       <c r="D12">
-        <v>-0.1116808485431056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319766306589299</v>
+      </c>
+      <c r="E12">
+        <v>-0.04678357091861229</v>
+      </c>
+      <c r="F12">
+        <v>0.02952809366516281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04380276548892569</v>
+        <v>0.04386070301688798</v>
       </c>
       <c r="C13">
-        <v>-0.005628522547338552</v>
+        <v>0.002450387180452298</v>
       </c>
       <c r="D13">
-        <v>-0.03770826077900331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05342198898922133</v>
+      </c>
+      <c r="E13">
+        <v>0.0005368503163375732</v>
+      </c>
+      <c r="F13">
+        <v>0.003703308461750517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01855663969761554</v>
+        <v>0.02327477875579914</v>
       </c>
       <c r="C14">
-        <v>-0.01490890888387392</v>
+        <v>0.01359506944472315</v>
       </c>
       <c r="D14">
-        <v>-0.02671215419578909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03305133102887182</v>
+      </c>
+      <c r="E14">
+        <v>-0.01827519786163056</v>
+      </c>
+      <c r="F14">
+        <v>0.01311296888646208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03303886542255341</v>
+        <v>0.03352462836379142</v>
       </c>
       <c r="C15">
-        <v>-0.007223131042621511</v>
+        <v>0.005217769580689465</v>
       </c>
       <c r="D15">
-        <v>-0.04092304385627058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04646128364600449</v>
+      </c>
+      <c r="E15">
+        <v>-0.007801359875851953</v>
+      </c>
+      <c r="F15">
+        <v>0.02931226202734969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07494294613225441</v>
+        <v>0.07294072705097809</v>
       </c>
       <c r="C16">
-        <v>-0.007445091745055869</v>
+        <v>0.001524583280471038</v>
       </c>
       <c r="D16">
-        <v>-0.1093989984280032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284105129527311</v>
+      </c>
+      <c r="E16">
+        <v>-0.06207829838152223</v>
+      </c>
+      <c r="F16">
+        <v>0.02559850825661705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0001305466832014455</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002806591222338509</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001515120288115359</v>
+      </c>
+      <c r="E17">
+        <v>-0.00112756784464584</v>
+      </c>
+      <c r="F17">
+        <v>-0.002452528945283017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01902549051642602</v>
+        <v>0.04017681519875021</v>
       </c>
       <c r="C18">
-        <v>0.00318668771891128</v>
+        <v>-0.002946325493456303</v>
       </c>
       <c r="D18">
-        <v>-0.02633214367646223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01563659061500845</v>
+      </c>
+      <c r="E18">
+        <v>0.007362124001350746</v>
+      </c>
+      <c r="F18">
+        <v>-0.009080862586053888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06337309687049325</v>
+        <v>0.06226222369398723</v>
       </c>
       <c r="C20">
-        <v>-0.005518483389944895</v>
+        <v>0.0008683781364965398</v>
       </c>
       <c r="D20">
-        <v>-0.06600784943981015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07846692794303058</v>
+      </c>
+      <c r="E20">
+        <v>-0.05727454953536365</v>
+      </c>
+      <c r="F20">
+        <v>0.02904372409782773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03749663490815013</v>
+        <v>0.04067953275581553</v>
       </c>
       <c r="C21">
-        <v>-0.00940187422619433</v>
+        <v>0.006443814986193582</v>
       </c>
       <c r="D21">
-        <v>-0.0358925128053143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03738167311245336</v>
+      </c>
+      <c r="E21">
+        <v>0.001250361453517279</v>
+      </c>
+      <c r="F21">
+        <v>-0.02651123870683383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04159927530509817</v>
+        <v>0.04507881392797648</v>
       </c>
       <c r="C22">
-        <v>-0.002039534455055024</v>
+        <v>0.000861633175980555</v>
       </c>
       <c r="D22">
-        <v>0.002938972746875305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006050055630093898</v>
+      </c>
+      <c r="E22">
+        <v>-0.03637890078055782</v>
+      </c>
+      <c r="F22">
+        <v>-0.05067380719742704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04156208197434304</v>
+        <v>0.04505483664535469</v>
       </c>
       <c r="C23">
-        <v>-0.002029087417604192</v>
+        <v>0.0008526417237148489</v>
       </c>
       <c r="D23">
-        <v>0.00291636980765641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006064480498329619</v>
+      </c>
+      <c r="E23">
+        <v>-0.03656191394920152</v>
+      </c>
+      <c r="F23">
+        <v>-0.0506467544451108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08189704838221878</v>
+        <v>0.07877804420989393</v>
       </c>
       <c r="C24">
-        <v>-0.007806560312824746</v>
+        <v>0.002222337025667298</v>
       </c>
       <c r="D24">
-        <v>-0.1118152027151619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.120687722677327</v>
+      </c>
+      <c r="E24">
+        <v>-0.04981989711770914</v>
+      </c>
+      <c r="F24">
+        <v>0.0282452218221812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08735942664221484</v>
+        <v>0.08382177211337435</v>
       </c>
       <c r="C25">
-        <v>-0.01057290124183962</v>
+        <v>0.004934169817116424</v>
       </c>
       <c r="D25">
-        <v>-0.09732309227649431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098407314055725</v>
+      </c>
+      <c r="E25">
+        <v>-0.03303635781835224</v>
+      </c>
+      <c r="F25">
+        <v>0.02607615535260016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0578445673698271</v>
+        <v>0.05981035084159786</v>
       </c>
       <c r="C26">
-        <v>-0.01727521339251429</v>
+        <v>0.0145297600232287</v>
       </c>
       <c r="D26">
-        <v>-0.02514475106905398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04319689651405478</v>
+      </c>
+      <c r="E26">
+        <v>-0.02974024443349496</v>
+      </c>
+      <c r="F26">
+        <v>-0.008986835634177332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.133918443549956</v>
+        <v>0.1418598188265213</v>
       </c>
       <c r="C28">
-        <v>-0.01369004648964023</v>
+        <v>0.02303053764508104</v>
       </c>
       <c r="D28">
-        <v>0.2687745007971858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609990125924794</v>
+      </c>
+      <c r="E28">
+        <v>0.06870675720991934</v>
+      </c>
+      <c r="F28">
+        <v>0.005282723541277375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02526257340867444</v>
+        <v>0.02861365490320361</v>
       </c>
       <c r="C29">
-        <v>-0.009612677187802416</v>
+        <v>0.008764173940022579</v>
       </c>
       <c r="D29">
-        <v>-0.02531388079339067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03093499849317188</v>
+      </c>
+      <c r="E29">
+        <v>-0.01314671164515612</v>
+      </c>
+      <c r="F29">
+        <v>-0.01293381267004935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06272238811460347</v>
+        <v>0.05921726595906013</v>
       </c>
       <c r="C30">
-        <v>-0.009245182638105745</v>
+        <v>0.00265355033114134</v>
       </c>
       <c r="D30">
-        <v>-0.07312748295014569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08725165446894773</v>
+      </c>
+      <c r="E30">
+        <v>-0.01397644481309618</v>
+      </c>
+      <c r="F30">
+        <v>0.07869691934446663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05010492490280591</v>
+        <v>0.05127351983186294</v>
       </c>
       <c r="C31">
-        <v>-0.01707801066609249</v>
+        <v>0.01609982340534431</v>
       </c>
       <c r="D31">
-        <v>-0.0229342712589239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02500976194419723</v>
+      </c>
+      <c r="E31">
+        <v>-0.02906122471832717</v>
+      </c>
+      <c r="F31">
+        <v>-0.0007733559857603273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04691905449645409</v>
+        <v>0.05132680610193318</v>
       </c>
       <c r="C32">
-        <v>-0.002144828369146414</v>
+        <v>-0.001559494674964143</v>
       </c>
       <c r="D32">
-        <v>-0.02445949406010956</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03444965355108939</v>
+      </c>
+      <c r="E32">
+        <v>-0.03254901628840975</v>
+      </c>
+      <c r="F32">
+        <v>0.003102337381485162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09068597327106276</v>
+        <v>0.08954430989976313</v>
       </c>
       <c r="C33">
-        <v>-0.01330788335151578</v>
+        <v>0.006922446235285937</v>
       </c>
       <c r="D33">
-        <v>-0.08543359902462444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1033714844317863</v>
+      </c>
+      <c r="E33">
+        <v>-0.04675356088559072</v>
+      </c>
+      <c r="F33">
+        <v>0.04261531661485388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06899614837616255</v>
+        <v>0.0675480780316581</v>
       </c>
       <c r="C34">
-        <v>-0.01535713998851577</v>
+        <v>0.01043133620188058</v>
       </c>
       <c r="D34">
-        <v>-0.09196660996121077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095595385566745</v>
+      </c>
+      <c r="E34">
+        <v>-0.03609021179606249</v>
+      </c>
+      <c r="F34">
+        <v>0.03342971439121298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02463357843965936</v>
+        <v>0.02656217397204163</v>
       </c>
       <c r="C35">
-        <v>-0.003362840583061348</v>
+        <v>0.003117952230463634</v>
       </c>
       <c r="D35">
-        <v>-0.0069213015992599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01238218810831441</v>
+      </c>
+      <c r="E35">
+        <v>-0.01315725770248041</v>
+      </c>
+      <c r="F35">
+        <v>0.00077609885499363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02573056075338529</v>
+        <v>0.02792962799747309</v>
       </c>
       <c r="C36">
-        <v>-0.007644927796180672</v>
+        <v>0.006941467258044621</v>
       </c>
       <c r="D36">
-        <v>-0.03883341845297272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03912402499176292</v>
+      </c>
+      <c r="E36">
+        <v>-0.01707920930610203</v>
+      </c>
+      <c r="F36">
+        <v>0.01361982491396473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001293914320327998</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007808478887888749</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002653252116326375</v>
+      </c>
+      <c r="E37">
+        <v>-0.000245956233750616</v>
+      </c>
+      <c r="F37">
+        <v>-0.001974324892993343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1127942332848446</v>
+        <v>0.1017423376023969</v>
       </c>
       <c r="C39">
-        <v>-0.02330706696108465</v>
+        <v>0.01620734431914372</v>
       </c>
       <c r="D39">
-        <v>-0.1466857957527641</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1514012946750587</v>
+      </c>
+      <c r="E39">
+        <v>-0.05996107526595904</v>
+      </c>
+      <c r="F39">
+        <v>0.02057021419653991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03877430853517923</v>
+        <v>0.04389203508337997</v>
       </c>
       <c r="C40">
-        <v>-0.009311300763077207</v>
+        <v>0.007712401100103941</v>
       </c>
       <c r="D40">
-        <v>-0.02001024425126196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03250754656258226</v>
+      </c>
+      <c r="E40">
+        <v>-0.002330983510401495</v>
+      </c>
+      <c r="F40">
+        <v>-0.01633445950156422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0255649877952044</v>
+        <v>0.02776110801428711</v>
       </c>
       <c r="C41">
-        <v>-0.007418084329823317</v>
+        <v>0.006990716501482049</v>
       </c>
       <c r="D41">
-        <v>-0.009422476891205695</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01080089147634836</v>
+      </c>
+      <c r="E41">
+        <v>-0.01231581894570842</v>
+      </c>
+      <c r="F41">
+        <v>-0.007628840114911451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04224107496132702</v>
+        <v>0.04038769317310145</v>
       </c>
       <c r="C43">
-        <v>-0.008203702074983554</v>
+        <v>0.00772386936903628</v>
       </c>
       <c r="D43">
-        <v>-0.0172555085736834</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01955821332504539</v>
+      </c>
+      <c r="E43">
+        <v>-0.02582408666277398</v>
+      </c>
+      <c r="F43">
+        <v>-0.01646449528465083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0698092279805019</v>
+        <v>0.07889519076993981</v>
       </c>
       <c r="C44">
-        <v>-0.02484138042260076</v>
+        <v>0.01953680528289045</v>
       </c>
       <c r="D44">
-        <v>-0.09371970924869073</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09611698725562971</v>
+      </c>
+      <c r="E44">
+        <v>-0.06242281999571597</v>
+      </c>
+      <c r="F44">
+        <v>0.1674627024089552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02167016525205774</v>
+        <v>0.02464215707434946</v>
       </c>
       <c r="C46">
-        <v>-0.004285977426769822</v>
+        <v>0.003741058330769081</v>
       </c>
       <c r="D46">
-        <v>-0.006154512152026361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01315851352913876</v>
+      </c>
+      <c r="E46">
+        <v>-0.02732957417258203</v>
+      </c>
+      <c r="F46">
+        <v>-0.005541946853965361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05227388220267612</v>
+        <v>0.05189848004842682</v>
       </c>
       <c r="C47">
-        <v>-0.004972027755300401</v>
+        <v>0.004330683970218442</v>
       </c>
       <c r="D47">
-        <v>-0.008196872524187987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01090122705017393</v>
+      </c>
+      <c r="E47">
+        <v>-0.02280680954780221</v>
+      </c>
+      <c r="F47">
+        <v>-0.03269752089357421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04802550147471756</v>
+        <v>0.05087542574285134</v>
       </c>
       <c r="C48">
-        <v>-0.004734655985282375</v>
+        <v>0.00222703703701565</v>
       </c>
       <c r="D48">
-        <v>-0.04297552799213922</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04996497420797458</v>
+      </c>
+      <c r="E48">
+        <v>0.004747761329478449</v>
+      </c>
+      <c r="F48">
+        <v>0.01200477973939592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2010511337505671</v>
+        <v>0.2000680063242092</v>
       </c>
       <c r="C49">
-        <v>-0.02221721350901078</v>
+        <v>0.02011279365315399</v>
       </c>
       <c r="D49">
-        <v>0.01231658629939551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005351477401852204</v>
+      </c>
+      <c r="E49">
+        <v>-0.03166549521149251</v>
+      </c>
+      <c r="F49">
+        <v>0.04825206281206808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04954774376635416</v>
+        <v>0.05170298695475364</v>
       </c>
       <c r="C50">
-        <v>-0.01306654792846871</v>
+        <v>0.01182287076016368</v>
       </c>
       <c r="D50">
-        <v>-0.02280956510363166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0232909296888436</v>
+      </c>
+      <c r="E50">
+        <v>-0.03009168616479238</v>
+      </c>
+      <c r="F50">
+        <v>0.01018664071595952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558130933750397</v>
+        <v>0.1495151801075669</v>
       </c>
       <c r="C52">
-        <v>-0.02080088157525618</v>
+        <v>0.01877547142246659</v>
       </c>
       <c r="D52">
-        <v>-0.04645682880073673</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04258174257157315</v>
+      </c>
+      <c r="E52">
+        <v>-0.02320949864268179</v>
+      </c>
+      <c r="F52">
+        <v>0.0433507450344006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1742849088019966</v>
+        <v>0.1695002004029238</v>
       </c>
       <c r="C53">
-        <v>-0.02112480869592087</v>
+        <v>0.02155037258528237</v>
       </c>
       <c r="D53">
-        <v>-0.01152941257251772</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005810940880925923</v>
+      </c>
+      <c r="E53">
+        <v>-0.03065407294740198</v>
+      </c>
+      <c r="F53">
+        <v>0.07602952085870129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01622720407576763</v>
+        <v>0.0191797180881247</v>
       </c>
       <c r="C54">
-        <v>-0.01215672648500796</v>
+        <v>0.01088976377089657</v>
       </c>
       <c r="D54">
-        <v>-0.02785598270685015</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03373784232249923</v>
+      </c>
+      <c r="E54">
+        <v>-0.02130670601476631</v>
+      </c>
+      <c r="F54">
+        <v>-0.002211730721701909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1172443107167427</v>
+        <v>0.1160634823000091</v>
       </c>
       <c r="C55">
-        <v>-0.01870926030403409</v>
+        <v>0.01879677021015104</v>
       </c>
       <c r="D55">
-        <v>-0.009794036689755104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008784119963845026</v>
+      </c>
+      <c r="E55">
+        <v>-0.02614188313831644</v>
+      </c>
+      <c r="F55">
+        <v>0.04800120796132965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805436603050386</v>
+        <v>0.1758964088088366</v>
       </c>
       <c r="C56">
-        <v>-0.01914464881430591</v>
+        <v>0.01953668253729014</v>
       </c>
       <c r="D56">
-        <v>-0.002176558110856407</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002278562020165399</v>
+      </c>
+      <c r="E56">
+        <v>-0.03317354554580774</v>
+      </c>
+      <c r="F56">
+        <v>0.05503079556054053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04870904334144667</v>
+        <v>0.04601911824451137</v>
       </c>
       <c r="C58">
-        <v>-0.00563570665284141</v>
+        <v>-0.0001880443979287139</v>
       </c>
       <c r="D58">
-        <v>-0.06285089369631879</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07488191752103504</v>
+      </c>
+      <c r="E58">
+        <v>-0.03570218471114502</v>
+      </c>
+      <c r="F58">
+        <v>-0.036184888080983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1623277088373954</v>
+        <v>0.1666796901689526</v>
       </c>
       <c r="C59">
-        <v>-0.01549485719498271</v>
+        <v>0.02326150568657001</v>
       </c>
       <c r="D59">
-        <v>0.2250724010658766</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183104950834584</v>
+      </c>
+      <c r="E59">
+        <v>0.04951838781333054</v>
+      </c>
+      <c r="F59">
+        <v>-0.03892443654569524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2382322104387511</v>
+        <v>0.2302773875402015</v>
       </c>
       <c r="C60">
-        <v>-0.002747295254921787</v>
+        <v>-0.0003445404659391269</v>
       </c>
       <c r="D60">
-        <v>-0.0429332318553778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03911554065631902</v>
+      </c>
+      <c r="E60">
+        <v>-0.005399177630569577</v>
+      </c>
+      <c r="F60">
+        <v>0.004336369846597117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08377868432883347</v>
+        <v>0.07738204432139195</v>
       </c>
       <c r="C61">
-        <v>-0.0171004647510785</v>
+        <v>0.01150115463912915</v>
       </c>
       <c r="D61">
-        <v>-0.1054778666346129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1161601860152019</v>
+      </c>
+      <c r="E61">
+        <v>-0.03831887753144848</v>
+      </c>
+      <c r="F61">
+        <v>0.007670276900583172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1717726330612459</v>
+        <v>0.1691911719449921</v>
       </c>
       <c r="C62">
-        <v>-0.02297297586144595</v>
+        <v>0.02231848035427069</v>
       </c>
       <c r="D62">
-        <v>-0.0035283826955469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005764548062539029</v>
+      </c>
+      <c r="E62">
+        <v>-0.0341671168300016</v>
+      </c>
+      <c r="F62">
+        <v>0.04083273473550875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04209060916762048</v>
+        <v>0.04579667937669271</v>
       </c>
       <c r="C63">
-        <v>-0.005600648682456726</v>
+        <v>0.001818173063826397</v>
       </c>
       <c r="D63">
-        <v>-0.04681721187659805</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06039342444056934</v>
+      </c>
+      <c r="E63">
+        <v>-0.02478946326229969</v>
+      </c>
+      <c r="F63">
+        <v>0.00072807876570539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1133005108224784</v>
+        <v>0.1110261201906421</v>
       </c>
       <c r="C64">
-        <v>-0.01583185726326413</v>
+        <v>0.01258918859520352</v>
       </c>
       <c r="D64">
-        <v>-0.03077525589837081</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04254911147919802</v>
+      </c>
+      <c r="E64">
+        <v>-0.02363950441803708</v>
+      </c>
+      <c r="F64">
+        <v>0.02483689133447746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1436145837910891</v>
+        <v>0.151682108653816</v>
       </c>
       <c r="C65">
-        <v>-0.03511492770970421</v>
+        <v>0.03528914209703139</v>
       </c>
       <c r="D65">
-        <v>0.05845171164110183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0478123479032968</v>
+      </c>
+      <c r="E65">
+        <v>-0.004973262068617567</v>
+      </c>
+      <c r="F65">
+        <v>0.03926644241954828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1358801003016054</v>
+        <v>0.1221738919086051</v>
       </c>
       <c r="C66">
-        <v>-0.02179595849063602</v>
+        <v>0.01457615610481974</v>
       </c>
       <c r="D66">
-        <v>-0.1260577952663197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1391824239641693</v>
+      </c>
+      <c r="E66">
+        <v>-0.06440538528198908</v>
+      </c>
+      <c r="F66">
+        <v>0.02649542151144267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06263432647201485</v>
+        <v>0.05568505632754306</v>
       </c>
       <c r="C67">
-        <v>-0.005722092175449001</v>
+        <v>0.003249206091281322</v>
       </c>
       <c r="D67">
-        <v>-0.0549314308823986</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05669190478876488</v>
+      </c>
+      <c r="E67">
+        <v>-0.01760740811926034</v>
+      </c>
+      <c r="F67">
+        <v>-0.03434519237435128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1072742589907404</v>
+        <v>0.1166666677534288</v>
       </c>
       <c r="C68">
-        <v>-0.02375554457732361</v>
+        <v>0.03384331036130504</v>
       </c>
       <c r="D68">
-        <v>0.2668051198733944</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2612685945127453</v>
+      </c>
+      <c r="E68">
+        <v>0.08842055754227636</v>
+      </c>
+      <c r="F68">
+        <v>0.0009148355356727689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03967004464413456</v>
+        <v>0.03868421221709045</v>
       </c>
       <c r="C69">
-        <v>-0.002168095860292282</v>
+        <v>0.001354802933462196</v>
       </c>
       <c r="D69">
-        <v>-0.006207451203560626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008295898320894585</v>
+      </c>
+      <c r="E69">
+        <v>-0.02403059836428866</v>
+      </c>
+      <c r="F69">
+        <v>-0.001308212577272048</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06554278763709546</v>
+        <v>0.06714025350729262</v>
       </c>
       <c r="C70">
-        <v>0.02459900717933565</v>
+        <v>-0.02686528109354972</v>
       </c>
       <c r="D70">
-        <v>-0.003200852139113078</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02536325613740844</v>
+      </c>
+      <c r="E70">
+        <v>0.03157529327085577</v>
+      </c>
+      <c r="F70">
+        <v>-0.1811793554537285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1256146872177717</v>
+        <v>0.1365280151604146</v>
       </c>
       <c r="C71">
-        <v>-0.02797746942648806</v>
+        <v>0.0383928531771173</v>
       </c>
       <c r="D71">
-        <v>0.283497373588453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2714660301089714</v>
+      </c>
+      <c r="E71">
+        <v>0.09814044073102583</v>
+      </c>
+      <c r="F71">
+        <v>0.006818034607301713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385637448286896</v>
+        <v>0.1444295459487592</v>
       </c>
       <c r="C72">
-        <v>-0.02824606374466249</v>
+        <v>0.02821712695067361</v>
       </c>
       <c r="D72">
-        <v>-0.00440048708525355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004365973426147689</v>
+      </c>
+      <c r="E72">
+        <v>-0.03763927343093739</v>
+      </c>
+      <c r="F72">
+        <v>0.02861147423242312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2054946687347023</v>
+        <v>0.2042381038138431</v>
       </c>
       <c r="C73">
-        <v>-0.01743549170550186</v>
+        <v>0.01369555295287129</v>
       </c>
       <c r="D73">
-        <v>-0.01124323370663572</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01791510437709187</v>
+      </c>
+      <c r="E73">
+        <v>-0.06656571679041255</v>
+      </c>
+      <c r="F73">
+        <v>0.04202639638728713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09324885903861374</v>
+        <v>0.09471720652046375</v>
       </c>
       <c r="C74">
-        <v>-0.01464729134450676</v>
+        <v>0.01416728819136061</v>
       </c>
       <c r="D74">
-        <v>-0.0177393345897912</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01693381882331741</v>
+      </c>
+      <c r="E74">
+        <v>-0.04463781180832772</v>
+      </c>
+      <c r="F74">
+        <v>0.0534979346901466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1341091791712614</v>
+        <v>0.126635217156809</v>
       </c>
       <c r="C75">
-        <v>-0.03113798473513902</v>
+        <v>0.02961367835607721</v>
       </c>
       <c r="D75">
-        <v>-0.02768125170001198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02922234034179495</v>
+      </c>
+      <c r="E75">
+        <v>-0.05733617069945613</v>
+      </c>
+      <c r="F75">
+        <v>0.02114870283284051</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08177682194035199</v>
+        <v>0.09016787762786514</v>
       </c>
       <c r="C77">
-        <v>-0.01452366785456573</v>
+        <v>0.008474610643583224</v>
       </c>
       <c r="D77">
-        <v>-0.1020936222270094</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1142904329220028</v>
+      </c>
+      <c r="E77">
+        <v>-0.04496630822428455</v>
+      </c>
+      <c r="F77">
+        <v>0.03314745368405678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0992469579713372</v>
+        <v>0.1007906578945335</v>
       </c>
       <c r="C78">
-        <v>-0.04406499905139264</v>
+        <v>0.03892606916250207</v>
       </c>
       <c r="D78">
-        <v>-0.1092876655146356</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1110609266471181</v>
+      </c>
+      <c r="E78">
+        <v>-0.07597087180325687</v>
+      </c>
+      <c r="F78">
+        <v>0.05292723355596873</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1650391096587973</v>
+        <v>0.1631322315834543</v>
       </c>
       <c r="C79">
-        <v>-0.02577753361967456</v>
+        <v>0.02462176194041177</v>
       </c>
       <c r="D79">
-        <v>-0.01093567316761579</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01313756030582002</v>
+      </c>
+      <c r="E79">
+        <v>-0.04445582944573095</v>
+      </c>
+      <c r="F79">
+        <v>0.01316778610228301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08064272761885154</v>
+        <v>0.07955883224405021</v>
       </c>
       <c r="C80">
-        <v>-0.001186803210089796</v>
+        <v>-0.0006027640676775967</v>
       </c>
       <c r="D80">
-        <v>-0.05151187648166659</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05376376951431511</v>
+      </c>
+      <c r="E80">
+        <v>-0.03253106277041967</v>
+      </c>
+      <c r="F80">
+        <v>-0.025235269792488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205240911659523</v>
+        <v>0.1170866943349917</v>
       </c>
       <c r="C81">
-        <v>-0.0331207560102938</v>
+        <v>0.03305516378225899</v>
       </c>
       <c r="D81">
-        <v>-0.01960979513611111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01432963443689764</v>
+      </c>
+      <c r="E81">
+        <v>-0.05514537267884246</v>
+      </c>
+      <c r="F81">
+        <v>0.01873464080178621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658282527542204</v>
+        <v>0.165230842268039</v>
       </c>
       <c r="C82">
-        <v>-0.026404475183077</v>
+        <v>0.0269938812012116</v>
       </c>
       <c r="D82">
-        <v>-0.01276924179686476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002760253716070206</v>
+      </c>
+      <c r="E82">
+        <v>-0.02887023011044483</v>
+      </c>
+      <c r="F82">
+        <v>0.08205114808343797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06355001627164543</v>
+        <v>0.05760430553062708</v>
       </c>
       <c r="C83">
-        <v>-0.005431978451204252</v>
+        <v>0.003343977605499275</v>
       </c>
       <c r="D83">
-        <v>-0.04274687497363957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04862353109007784</v>
+      </c>
+      <c r="E83">
+        <v>-0.00152618802123269</v>
+      </c>
+      <c r="F83">
+        <v>-0.03562601207113641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06212503691064608</v>
+        <v>0.05677096805913627</v>
       </c>
       <c r="C84">
-        <v>-0.01390901563230567</v>
+        <v>0.01091047941839816</v>
       </c>
       <c r="D84">
-        <v>-0.0677482194691917</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07208066352762595</v>
+      </c>
+      <c r="E84">
+        <v>-0.01389002001468039</v>
+      </c>
+      <c r="F84">
+        <v>0.01441359681774532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1384476353665481</v>
+        <v>0.1345057777827337</v>
       </c>
       <c r="C85">
-        <v>-0.02995935349272541</v>
+        <v>0.02957097596202775</v>
       </c>
       <c r="D85">
-        <v>-0.01235560689125301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009873205189180057</v>
+      </c>
+      <c r="E85">
+        <v>-0.03683128381952568</v>
+      </c>
+      <c r="F85">
+        <v>0.04811486036885116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1017007457858209</v>
+        <v>0.09395534123790779</v>
       </c>
       <c r="C86">
-        <v>0.002680262251001638</v>
+        <v>-0.005514713973693324</v>
       </c>
       <c r="D86">
-        <v>-0.008350252566378056</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.051473275242136</v>
+      </c>
+      <c r="E86">
+        <v>-0.2185831280325427</v>
+      </c>
+      <c r="F86">
+        <v>-0.8998439020700444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09735792162603601</v>
+        <v>0.09336448056176136</v>
       </c>
       <c r="C87">
-        <v>-0.0284634613276349</v>
+        <v>0.01953644639517741</v>
       </c>
       <c r="D87">
-        <v>-0.07148267979173134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09587201845247445</v>
+      </c>
+      <c r="E87">
+        <v>0.05179339924353077</v>
+      </c>
+      <c r="F87">
+        <v>0.05115409799760195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06144670738745958</v>
+        <v>0.06060352568144521</v>
       </c>
       <c r="C88">
-        <v>-0.005305614134394608</v>
+        <v>0.002956037326916358</v>
       </c>
       <c r="D88">
-        <v>-0.05321965491883913</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05012479664490632</v>
+      </c>
+      <c r="E88">
+        <v>-0.02491418421076582</v>
+      </c>
+      <c r="F88">
+        <v>0.01481429045079235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1186399636104804</v>
+        <v>0.1272634806431622</v>
       </c>
       <c r="C89">
-        <v>-0.004842731431314326</v>
+        <v>0.01378687011144672</v>
       </c>
       <c r="D89">
-        <v>0.2506482422041685</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2446971425209453</v>
+      </c>
+      <c r="E89">
+        <v>0.09242808796746911</v>
+      </c>
+      <c r="F89">
+        <v>-0.008136760509080744</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1383750106735768</v>
+        <v>0.1513245222607472</v>
       </c>
       <c r="C90">
-        <v>-0.02417691071511805</v>
+        <v>0.0351046358627976</v>
       </c>
       <c r="D90">
-        <v>0.2682221853872722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683724394038816</v>
+      </c>
+      <c r="E90">
+        <v>0.1140011637360251</v>
+      </c>
+      <c r="F90">
+        <v>-0.008802435899019287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1210815328526093</v>
+        <v>0.1205396881183457</v>
       </c>
       <c r="C91">
-        <v>-0.02089581851599758</v>
+        <v>0.02114998694597036</v>
       </c>
       <c r="D91">
-        <v>0.01175871143135214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01601388516673678</v>
+      </c>
+      <c r="E91">
+        <v>-0.05392737089892347</v>
+      </c>
+      <c r="F91">
+        <v>-0.0008418027784512224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1397450454300745</v>
+        <v>0.1473465436212072</v>
       </c>
       <c r="C92">
-        <v>-0.01504000110676377</v>
+        <v>0.02612923569487251</v>
       </c>
       <c r="D92">
-        <v>0.3026135216435304</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.291174490102053</v>
+      </c>
+      <c r="E92">
+        <v>0.1017435301640929</v>
+      </c>
+      <c r="F92">
+        <v>-0.02026328954019919</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1415368802276304</v>
+        <v>0.1528048283850722</v>
       </c>
       <c r="C93">
-        <v>-0.02065499234531684</v>
+        <v>0.03014643274087452</v>
       </c>
       <c r="D93">
-        <v>0.2691950294316032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2646988729172942</v>
+      </c>
+      <c r="E93">
+        <v>0.07621361364391216</v>
+      </c>
+      <c r="F93">
+        <v>0.002237773924804989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1343772001596973</v>
+        <v>0.1272650775307041</v>
       </c>
       <c r="C94">
-        <v>-0.0276825911858171</v>
+        <v>0.02583850720582248</v>
       </c>
       <c r="D94">
-        <v>-0.04116041428267241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03992365645760852</v>
+      </c>
+      <c r="E94">
+        <v>-0.05718523593364231</v>
+      </c>
+      <c r="F94">
+        <v>0.03264016633979355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1248563407949232</v>
+        <v>0.1281523725109599</v>
       </c>
       <c r="C95">
-        <v>-0.009740348296972777</v>
+        <v>0.003874878224328809</v>
       </c>
       <c r="D95">
-        <v>-0.08840708584723034</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09900128234651998</v>
+      </c>
+      <c r="E95">
+        <v>-0.05484983816451237</v>
+      </c>
+      <c r="F95">
+        <v>0.001265573834771886</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1231992651772947</v>
+        <v>0.1167365504730707</v>
       </c>
       <c r="C96">
-        <v>0.9866366698596195</v>
+        <v>-0.9863130683802529</v>
       </c>
       <c r="D96">
-        <v>0.01608564759211729</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0515572226743024</v>
+      </c>
+      <c r="E96">
+        <v>-0.05214273301998742</v>
+      </c>
+      <c r="F96">
+        <v>0.04209561610861925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1956596246291959</v>
+        <v>0.196361356218084</v>
       </c>
       <c r="C97">
-        <v>0.003992660434420938</v>
+        <v>-0.00505095781870638</v>
       </c>
       <c r="D97">
-        <v>0.01569532166030944</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02143999923207937</v>
+      </c>
+      <c r="E97">
+        <v>-0.02102558223225531</v>
+      </c>
+      <c r="F97">
+        <v>-0.1157689049259131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1996987415024403</v>
+        <v>0.2056023537787381</v>
       </c>
       <c r="C98">
-        <v>-0.01203238399736865</v>
+        <v>0.007931697244439871</v>
       </c>
       <c r="D98">
-        <v>-0.01096053895391026</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.014740593214109</v>
+      </c>
+      <c r="E98">
+        <v>0.07654369105983751</v>
+      </c>
+      <c r="F98">
+        <v>-0.09129928139283361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05514067449131898</v>
+        <v>0.05553423957404098</v>
       </c>
       <c r="C99">
-        <v>0.002223720553246811</v>
+        <v>-0.003979030985208096</v>
       </c>
       <c r="D99">
-        <v>-0.02894887594270695</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03859067166964852</v>
+      </c>
+      <c r="E99">
+        <v>-0.02156007548548501</v>
+      </c>
+      <c r="F99">
+        <v>0.004319993818378027</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.142416784231778</v>
+        <v>0.1294398370867232</v>
       </c>
       <c r="C100">
-        <v>0.03862934514561651</v>
+        <v>-0.05110853530443223</v>
       </c>
       <c r="D100">
-        <v>-0.3980390528549262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3528478651123753</v>
+      </c>
+      <c r="E100">
+        <v>0.8862851745819195</v>
+      </c>
+      <c r="F100">
+        <v>-0.1442899969889926</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02509469816910327</v>
+        <v>0.02854755681217612</v>
       </c>
       <c r="C101">
-        <v>-0.009512562747509726</v>
+        <v>0.00877123199386909</v>
       </c>
       <c r="D101">
-        <v>-0.0249618981619078</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03061521398654286</v>
+      </c>
+      <c r="E101">
+        <v>-0.01255837819842834</v>
+      </c>
+      <c r="F101">
+        <v>-0.01421611153531795</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
